--- a/vbai-fhir/CodeSystem-household-status.xlsx
+++ b/vbai-fhir/CodeSystem-household-status.xlsx
@@ -293,10 +293,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-household-status.xlsx
+++ b/vbai-fhir/CodeSystem-household-status.xlsx
@@ -293,10 +293,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-household-status.xlsx
+++ b/vbai-fhir/CodeSystem-household-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -293,10 +293,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-household-status.xlsx
+++ b/vbai-fhir/CodeSystem-household-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire codes for Household status</t>
+    <t>Residential Status Code System</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes required for household status</t>
+    <t>A comprehensive code system defining various residential statuses.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -159,7 +159,7 @@
     <t>SN</t>
   </si>
   <si>
-    <t xml:space="preserve">Skilled nursing facility/nursing home    </t>
+    <t>Skilled nursing facility/nursing home</t>
   </si>
   <si>
     <t>UT</t>

--- a/vbai-fhir/CodeSystem-household-status.xlsx
+++ b/vbai-fhir/CodeSystem-household-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>7</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>Assisted living</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Live with parent/care giver</t>
   </si>
   <si>
     <t>OH</t>
@@ -474,7 +468,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -566,18 +560,6 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/vbai-fhir/CodeSystem-household-status.xlsx
+++ b/vbai-fhir/CodeSystem-household-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-household-status.xlsx
+++ b/vbai-fhir/CodeSystem-household-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
